--- a/Luban/Configs/Datas/__enums__.xlsx
+++ b/Luban/Configs/Datas/__enums__.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\DNFReprint\Luban\Configs\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F126244E-8948-43F0-BBD1-C455548FCBD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C23D60AF-FD62-4C86-8E18-7FA836097F8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3855" yWindow="1845" windowWidth="25395" windowHeight="11385" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
   <si>
     <t>枚举名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -184,6 +184,14 @@
   </si>
   <si>
     <t>MapType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COPY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -551,10 +559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{482160D1-8E9F-4701-8C89-55D43E73138E}">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -743,6 +751,20 @@
         <v>37</v>
       </c>
     </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="G1:K1"/>
